--- a/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
+++ b/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtlegalaid-my.sharepoint.com/personal/ksurette_legalservicesvt_org/Documents/TIG 22/Docassemble guided interviews Suffolk project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6BE0666-EF23-411A-96A8-E5E3F6EE2591}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8282617-9972-42EE-BB09-EE5C943EE47D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F13D4BD2-1651-4B43-8F6C-36F85B10F0AA}"/>
   </bookViews>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A491E8-E2DE-9A4E-A3B9-C224836C99FE}">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2698,7 @@
       <c r="G44" t="s">
         <v>127</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="5" t="s">
         <v>144</v>
       </c>
       <c r="J44" t="s">
@@ -2713,7 +2713,7 @@
       <c r="M44" t="s">
         <v>22</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="7">
         <v>5401</v>
       </c>
       <c r="O44" t="s">
@@ -2739,7 +2739,7 @@
       <c r="G45" t="s">
         <v>130</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="5" t="s">
         <v>131</v>
       </c>
       <c r="J45" t="s">
@@ -2751,7 +2751,7 @@
       <c r="M45" t="s">
         <v>22</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="7">
         <v>5001</v>
       </c>
       <c r="O45" t="s">
@@ -3344,8 +3344,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="AddisonUnit@vermont.gov" xr:uid="{CE067579-4D2A-4FB7-BC20-71CF63E84A64}"/>
-    <hyperlink ref="I3" r:id="rId2" display="BenningtonUnit@vermont.gov" xr:uid="{FB72F267-E788-4851-A3D1-CA77ACFF585C}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{CE067579-4D2A-4FB7-BC20-71CF63E84A64}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{FB72F267-E788-4851-A3D1-CA77ACFF585C}"/>
     <hyperlink ref="I4" r:id="rId3" display="CaledoniaEssexUnit@vermont.gov" xr:uid="{1A175C18-6B0E-45DA-900D-8291E2C78C99}"/>
     <hyperlink ref="I5" r:id="rId4" display="ChittendenUnit@vermont.gov" xr:uid="{9FF34C42-4441-46C0-BE1D-9155E2E8825B}"/>
     <hyperlink ref="I6" r:id="rId5" display="CaledoniaEssexUnit@vermont.gov" xr:uid="{760AAC80-1B97-436E-AEB1-09E75778AC9D}"/>
@@ -3357,51 +3357,51 @@
     <hyperlink ref="I12" r:id="rId11" display="RutlandUnit@vermont.gov" xr:uid="{E84206E9-32FD-488A-9404-A74109553EE1}"/>
     <hyperlink ref="I13" r:id="rId12" display="WashingtonUnit@vermont.gov" xr:uid="{62688A28-3730-46D9-8F5B-6CB580AB3A11}"/>
     <hyperlink ref="I14" r:id="rId13" display="WindhamUnit@vermont.gov" xr:uid="{AE616A9A-A9CF-473C-AA71-EF580C860226}"/>
-    <hyperlink ref="I15" r:id="rId14" display="WindsorUnit@vermont.gov" xr:uid="{79E27C0A-1083-4C5E-B394-01C1BC9FC0CD}"/>
-    <hyperlink ref="I16" r:id="rId15" display="AddisonUnit@vermont.gov" xr:uid="{4A55FA55-EEB3-4B06-8E9A-C83765B14581}"/>
-    <hyperlink ref="I17" r:id="rId16" display="BenningtonUnit@vermont.gov" xr:uid="{F5846B64-7D2B-4EA9-A752-DEAE4E72E362}"/>
-    <hyperlink ref="I18" r:id="rId17" xr:uid="{A4A4A874-E4B7-44B8-9E90-89BB39E96775}"/>
-    <hyperlink ref="I19" r:id="rId18" xr:uid="{6A202E57-4DE0-4D16-9F4E-7D8F65CE1762}"/>
-    <hyperlink ref="I20" r:id="rId19" xr:uid="{0682AAD8-00E5-4949-B772-70778872FFF5}"/>
-    <hyperlink ref="I21" r:id="rId20" xr:uid="{8712C140-D413-43C0-A867-011098A3B272}"/>
-    <hyperlink ref="I22" r:id="rId21" xr:uid="{0D34FD78-2607-4346-AB53-AE0B6D796361}"/>
-    <hyperlink ref="I23" r:id="rId22" xr:uid="{92B4C53D-7BE3-46A3-B6C5-C07526084989}"/>
-    <hyperlink ref="I24" r:id="rId23" xr:uid="{A0D36FC9-2BD1-4ECB-A278-753DCCF813BC}"/>
-    <hyperlink ref="I25" r:id="rId24" xr:uid="{1BD2A3C4-BA91-459E-B929-C77E984B3450}"/>
-    <hyperlink ref="I26" r:id="rId25" xr:uid="{E6D72075-6EB0-4F34-A194-C1F9AB8E8F1A}"/>
-    <hyperlink ref="I27" r:id="rId26" xr:uid="{8D40A5D5-B35C-4505-B035-5AAB4A44A1BC}"/>
-    <hyperlink ref="I28" r:id="rId27" xr:uid="{09EFE2F4-2821-4608-B0B0-E0137AA308CD}"/>
-    <hyperlink ref="I29" r:id="rId28" xr:uid="{16F6DBC8-C336-483E-B9EF-76F76D347A6E}"/>
-    <hyperlink ref="I30" r:id="rId29" xr:uid="{0F7B39CE-DD14-43F4-A959-891D6B4E1F34}"/>
-    <hyperlink ref="I31" r:id="rId30" xr:uid="{6FC579A3-819C-47E6-9A7B-C93CAC63E5A3}"/>
-    <hyperlink ref="I32" r:id="rId31" xr:uid="{219729DB-1039-4400-9B07-43C2C104D9AD}"/>
-    <hyperlink ref="I33" r:id="rId32" xr:uid="{91FEC728-C373-46FD-B76E-96B37C0C0D09}"/>
-    <hyperlink ref="I34" r:id="rId33" xr:uid="{0BD2AB8E-3278-4694-9E73-822BAF35073A}"/>
-    <hyperlink ref="I35" r:id="rId34" xr:uid="{84CDACA3-ED0A-405E-9804-C8BAA8E75337}"/>
-    <hyperlink ref="I36" r:id="rId35" xr:uid="{1C2DB7AC-F3AE-41C9-AE84-2D800F417D82}"/>
-    <hyperlink ref="I37" r:id="rId36" xr:uid="{FBB062B1-C0B9-4A98-BBF1-F36C43FAE49B}"/>
-    <hyperlink ref="I38" r:id="rId37" xr:uid="{3DD10C8C-E6FD-41DF-853D-D761505E635F}"/>
-    <hyperlink ref="I39" r:id="rId38" xr:uid="{C0AF86C7-025C-4CE2-8B11-7CE370813380}"/>
-    <hyperlink ref="I40" r:id="rId39" xr:uid="{44AE4776-9A02-47E7-A3A9-773B01319A55}"/>
-    <hyperlink ref="I41" r:id="rId40" xr:uid="{85A98D47-0F16-4024-BDA1-203C9C7F5EAD}"/>
-    <hyperlink ref="I42" r:id="rId41" xr:uid="{7985C3BF-D1EC-4776-9D55-DFDCFB4FD907}"/>
-    <hyperlink ref="I43" r:id="rId42" xr:uid="{887F9765-37FE-436D-AD0B-EFBB5DC9E16B}"/>
-    <hyperlink ref="I45" r:id="rId43" xr:uid="{790534DE-D49A-4BA2-A92B-FD66D713D0F3}"/>
-    <hyperlink ref="I46" r:id="rId44" display="AddisonUnit@vermont.gov" xr:uid="{6F65162A-76DF-44FC-8F37-C22043850446}"/>
-    <hyperlink ref="I47" r:id="rId45" display="BenningtonUnit@vermont.gov" xr:uid="{77767542-E8F8-408E-9DE4-53EBC58FB08F}"/>
-    <hyperlink ref="I48" r:id="rId46" xr:uid="{A79A5CD5-9DD0-4BBC-916C-809348F5B64E}"/>
-    <hyperlink ref="I49" r:id="rId47" xr:uid="{A31BFBF8-D614-48C8-B837-4A739FFB1699}"/>
-    <hyperlink ref="I50" r:id="rId48" xr:uid="{F3F14201-F66D-4516-B4C4-26E10DC07E94}"/>
-    <hyperlink ref="I51" r:id="rId49" xr:uid="{EFE3A6D5-A378-4212-B347-070CD5782ABA}"/>
-    <hyperlink ref="I52" r:id="rId50" xr:uid="{A8A0E175-BD5D-4C83-95BC-F42E2BE75868}"/>
-    <hyperlink ref="I53" r:id="rId51" xr:uid="{75765CE9-BCD5-4D37-B03E-619896AAF600}"/>
-    <hyperlink ref="I54" r:id="rId52" xr:uid="{09157CB6-F34F-4AB2-8E4B-39713CD8E3F2}"/>
-    <hyperlink ref="I55" r:id="rId53" xr:uid="{921C2B89-E063-4064-AEF8-291B9236BB7F}"/>
-    <hyperlink ref="I56" r:id="rId54" xr:uid="{EFC0BB34-DA67-4F71-9200-F5F995EFB539}"/>
-    <hyperlink ref="I57" r:id="rId55" xr:uid="{98D10E1D-4A18-45EE-A025-C2EB7E3CAA3B}"/>
-    <hyperlink ref="I58" r:id="rId56" xr:uid="{04FC0544-87FB-4DA9-8C87-95BC2EFB7F62}"/>
-    <hyperlink ref="I59" r:id="rId57" xr:uid="{500D52E8-A4D4-4FDF-9C29-8FD1AB1FB9CC}"/>
-    <hyperlink ref="I44" r:id="rId58" display="https://www.vermontjudiciary.org/court-locations/EnvironmentalDivision@vtcourts.gov" xr:uid="{BE6A6C68-F953-4184-919E-05CAA10AF1B2}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{79E27C0A-1083-4C5E-B394-01C1BC9FC0CD}"/>
+    <hyperlink ref="I17" r:id="rId15" display="BenningtonUnit@vermont.gov" xr:uid="{F5846B64-7D2B-4EA9-A752-DEAE4E72E362}"/>
+    <hyperlink ref="I18" r:id="rId16" xr:uid="{A4A4A874-E4B7-44B8-9E90-89BB39E96775}"/>
+    <hyperlink ref="I19" r:id="rId17" xr:uid="{6A202E57-4DE0-4D16-9F4E-7D8F65CE1762}"/>
+    <hyperlink ref="I20" r:id="rId18" xr:uid="{0682AAD8-00E5-4949-B772-70778872FFF5}"/>
+    <hyperlink ref="I21" r:id="rId19" xr:uid="{8712C140-D413-43C0-A867-011098A3B272}"/>
+    <hyperlink ref="I22" r:id="rId20" xr:uid="{0D34FD78-2607-4346-AB53-AE0B6D796361}"/>
+    <hyperlink ref="I23" r:id="rId21" xr:uid="{92B4C53D-7BE3-46A3-B6C5-C07526084989}"/>
+    <hyperlink ref="I24" r:id="rId22" xr:uid="{A0D36FC9-2BD1-4ECB-A278-753DCCF813BC}"/>
+    <hyperlink ref="I25" r:id="rId23" xr:uid="{1BD2A3C4-BA91-459E-B929-C77E984B3450}"/>
+    <hyperlink ref="I26" r:id="rId24" xr:uid="{E6D72075-6EB0-4F34-A194-C1F9AB8E8F1A}"/>
+    <hyperlink ref="I27" r:id="rId25" xr:uid="{8D40A5D5-B35C-4505-B035-5AAB4A44A1BC}"/>
+    <hyperlink ref="I28" r:id="rId26" xr:uid="{09EFE2F4-2821-4608-B0B0-E0137AA308CD}"/>
+    <hyperlink ref="I29" r:id="rId27" xr:uid="{16F6DBC8-C336-483E-B9EF-76F76D347A6E}"/>
+    <hyperlink ref="I31" r:id="rId28" xr:uid="{6FC579A3-819C-47E6-9A7B-C93CAC63E5A3}"/>
+    <hyperlink ref="I32" r:id="rId29" xr:uid="{219729DB-1039-4400-9B07-43C2C104D9AD}"/>
+    <hyperlink ref="I33" r:id="rId30" xr:uid="{91FEC728-C373-46FD-B76E-96B37C0C0D09}"/>
+    <hyperlink ref="I34" r:id="rId31" xr:uid="{0BD2AB8E-3278-4694-9E73-822BAF35073A}"/>
+    <hyperlink ref="I35" r:id="rId32" xr:uid="{84CDACA3-ED0A-405E-9804-C8BAA8E75337}"/>
+    <hyperlink ref="I36" r:id="rId33" xr:uid="{1C2DB7AC-F3AE-41C9-AE84-2D800F417D82}"/>
+    <hyperlink ref="I37" r:id="rId34" xr:uid="{FBB062B1-C0B9-4A98-BBF1-F36C43FAE49B}"/>
+    <hyperlink ref="I38" r:id="rId35" xr:uid="{3DD10C8C-E6FD-41DF-853D-D761505E635F}"/>
+    <hyperlink ref="I39" r:id="rId36" xr:uid="{C0AF86C7-025C-4CE2-8B11-7CE370813380}"/>
+    <hyperlink ref="I40" r:id="rId37" xr:uid="{44AE4776-9A02-47E7-A3A9-773B01319A55}"/>
+    <hyperlink ref="I41" r:id="rId38" xr:uid="{85A98D47-0F16-4024-BDA1-203C9C7F5EAD}"/>
+    <hyperlink ref="I42" r:id="rId39" xr:uid="{7985C3BF-D1EC-4776-9D55-DFDCFB4FD907}"/>
+    <hyperlink ref="I43" r:id="rId40" xr:uid="{887F9765-37FE-436D-AD0B-EFBB5DC9E16B}"/>
+    <hyperlink ref="I45" r:id="rId41" xr:uid="{790534DE-D49A-4BA2-A92B-FD66D713D0F3}"/>
+    <hyperlink ref="I47" r:id="rId42" display="BenningtonUnit@vermont.gov" xr:uid="{77767542-E8F8-408E-9DE4-53EBC58FB08F}"/>
+    <hyperlink ref="I48" r:id="rId43" xr:uid="{A79A5CD5-9DD0-4BBC-916C-809348F5B64E}"/>
+    <hyperlink ref="I49" r:id="rId44" xr:uid="{A31BFBF8-D614-48C8-B837-4A739FFB1699}"/>
+    <hyperlink ref="I50" r:id="rId45" xr:uid="{F3F14201-F66D-4516-B4C4-26E10DC07E94}"/>
+    <hyperlink ref="I51" r:id="rId46" xr:uid="{EFE3A6D5-A378-4212-B347-070CD5782ABA}"/>
+    <hyperlink ref="I52" r:id="rId47" xr:uid="{A8A0E175-BD5D-4C83-95BC-F42E2BE75868}"/>
+    <hyperlink ref="I53" r:id="rId48" xr:uid="{75765CE9-BCD5-4D37-B03E-619896AAF600}"/>
+    <hyperlink ref="I54" r:id="rId49" xr:uid="{09157CB6-F34F-4AB2-8E4B-39713CD8E3F2}"/>
+    <hyperlink ref="I55" r:id="rId50" xr:uid="{921C2B89-E063-4064-AEF8-291B9236BB7F}"/>
+    <hyperlink ref="I56" r:id="rId51" xr:uid="{EFC0BB34-DA67-4F71-9200-F5F995EFB539}"/>
+    <hyperlink ref="I57" r:id="rId52" xr:uid="{98D10E1D-4A18-45EE-A025-C2EB7E3CAA3B}"/>
+    <hyperlink ref="I58" r:id="rId53" xr:uid="{04FC0544-87FB-4DA9-8C87-95BC2EFB7F62}"/>
+    <hyperlink ref="I59" r:id="rId54" xr:uid="{500D52E8-A4D4-4FDF-9C29-8FD1AB1FB9CC}"/>
+    <hyperlink ref="I44" r:id="rId55" xr:uid="{BE6A6C68-F953-4184-919E-05CAA10AF1B2}"/>
+    <hyperlink ref="I16" r:id="rId56" xr:uid="{5830BA12-A226-46C8-9DC4-7E52B01732CB}"/>
+    <hyperlink ref="I30" r:id="rId57" xr:uid="{6C038597-579A-46D2-A6BB-0AE6B8405458}"/>
+    <hyperlink ref="I46" r:id="rId58" xr:uid="{85F665A1-D6D5-4734-8DF5-8CEAA44D01C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>

--- a/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
+++ b/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtlegalaid-my.sharepoint.com/personal/ksurette_legalservicesvt_org/Documents/TIG 22/Docassemble guided interviews Suffolk project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8282617-9972-42EE-BB09-EE5C943EE47D}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A4F0F9-67D5-449F-8102-AF06A1F9355D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F13D4BD2-1651-4B43-8F6C-36F85B10F0AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>EnvironmentalDivision@vtcourts.gov</t>
+  </si>
+  <si>
+    <t>Unknown Division</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>unknown court</t>
   </si>
 </sst>
 </file>
@@ -884,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A491E8-E2DE-9A4E-A3B9-C224836C99FE}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3340,6 +3349,286 @@
       </c>
       <c r="S59" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>146</v>
+      </c>
+      <c r="O60" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="O62" t="s">
+        <v>33</v>
+      </c>
+      <c r="S62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
+      </c>
+      <c r="O63" t="s">
+        <v>34</v>
+      </c>
+      <c r="S63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="O65" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="O66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="O67" t="s">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+      <c r="O68" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
+      </c>
+      <c r="O69" t="s">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
+      </c>
+      <c r="O70" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="O71" t="s">
+        <v>41</v>
+      </c>
+      <c r="S71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="O72" t="s">
+        <v>42</v>
+      </c>
+      <c r="S72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="O73" t="s">
+        <v>43</v>
+      </c>
+      <c r="S73" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
+++ b/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtlegalaid-my.sharepoint.com/personal/ksurette_legalservicesvt_org/Documents/TIG 22/Docassemble guided interviews Suffolk project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A4F0F9-67D5-449F-8102-AF06A1F9355D}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49364260-E149-4326-BD9D-764F639C8F5D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F13D4BD2-1651-4B43-8F6C-36F85B10F0AA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F13D4BD2-1651-4B43-8F6C-36F85B10F0AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t>unknown court</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Unknown email</t>
+  </si>
+  <si>
+    <t>Unknown address</t>
   </si>
 </sst>
 </file>
@@ -895,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A491E8-E2DE-9A4E-A3B9-C224836C99FE}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3364,6 +3373,24 @@
       <c r="E60" t="s">
         <v>146</v>
       </c>
+      <c r="G60" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" t="s">
+        <v>150</v>
+      </c>
+      <c r="L60" t="s">
+        <v>146</v>
+      </c>
+      <c r="M60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
       <c r="O60" t="s">
         <v>20</v>
       </c>
@@ -3384,6 +3411,24 @@
       <c r="E61" t="s">
         <v>146</v>
       </c>
+      <c r="G61" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J61" t="s">
+        <v>150</v>
+      </c>
+      <c r="L61" t="s">
+        <v>146</v>
+      </c>
+      <c r="M61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
       <c r="O61" t="s">
         <v>24</v>
       </c>
@@ -3404,6 +3449,24 @@
       <c r="E62" t="s">
         <v>146</v>
       </c>
+      <c r="G62" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" t="s">
+        <v>149</v>
+      </c>
+      <c r="J62" t="s">
+        <v>150</v>
+      </c>
+      <c r="L62" t="s">
+        <v>146</v>
+      </c>
+      <c r="M62" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
       <c r="O62" t="s">
         <v>33</v>
       </c>
@@ -3424,6 +3487,24 @@
       <c r="E63" t="s">
         <v>146</v>
       </c>
+      <c r="G63" t="s">
+        <v>148</v>
+      </c>
+      <c r="I63" t="s">
+        <v>149</v>
+      </c>
+      <c r="J63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L63" t="s">
+        <v>146</v>
+      </c>
+      <c r="M63" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
       <c r="O63" t="s">
         <v>34</v>
       </c>
@@ -3444,6 +3525,24 @@
       <c r="E64" t="s">
         <v>146</v>
       </c>
+      <c r="G64" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" t="s">
+        <v>149</v>
+      </c>
+      <c r="J64" t="s">
+        <v>150</v>
+      </c>
+      <c r="L64" t="s">
+        <v>146</v>
+      </c>
+      <c r="M64" t="s">
+        <v>22</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
       <c r="O64" s="7" t="s">
         <v>35</v>
       </c>
@@ -3464,6 +3563,24 @@
       <c r="E65" t="s">
         <v>146</v>
       </c>
+      <c r="G65" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" t="s">
+        <v>149</v>
+      </c>
+      <c r="J65" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" t="s">
+        <v>146</v>
+      </c>
+      <c r="M65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
       <c r="O65" t="s">
         <v>36</v>
       </c>
@@ -3484,6 +3601,24 @@
       <c r="E66" t="s">
         <v>146</v>
       </c>
+      <c r="G66" t="s">
+        <v>148</v>
+      </c>
+      <c r="I66" t="s">
+        <v>149</v>
+      </c>
+      <c r="J66" t="s">
+        <v>150</v>
+      </c>
+      <c r="L66" t="s">
+        <v>146</v>
+      </c>
+      <c r="M66" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
       <c r="O66" t="s">
         <v>37</v>
       </c>
@@ -3504,6 +3639,24 @@
       <c r="E67" t="s">
         <v>146</v>
       </c>
+      <c r="G67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" t="s">
+        <v>149</v>
+      </c>
+      <c r="J67" t="s">
+        <v>150</v>
+      </c>
+      <c r="L67" t="s">
+        <v>146</v>
+      </c>
+      <c r="M67" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
       <c r="O67" t="s">
         <v>38</v>
       </c>
@@ -3524,6 +3677,24 @@
       <c r="E68" t="s">
         <v>146</v>
       </c>
+      <c r="G68" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" t="s">
+        <v>149</v>
+      </c>
+      <c r="J68" t="s">
+        <v>150</v>
+      </c>
+      <c r="L68" t="s">
+        <v>146</v>
+      </c>
+      <c r="M68" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
       <c r="O68" t="s">
         <v>39</v>
       </c>
@@ -3544,6 +3715,24 @@
       <c r="E69" t="s">
         <v>146</v>
       </c>
+      <c r="G69" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" t="s">
+        <v>149</v>
+      </c>
+      <c r="J69" t="s">
+        <v>150</v>
+      </c>
+      <c r="L69" t="s">
+        <v>146</v>
+      </c>
+      <c r="M69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
       <c r="O69" t="s">
         <v>40</v>
       </c>
@@ -3564,6 +3753,24 @@
       <c r="E70" t="s">
         <v>146</v>
       </c>
+      <c r="G70" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" t="s">
+        <v>149</v>
+      </c>
+      <c r="J70" t="s">
+        <v>150</v>
+      </c>
+      <c r="L70" t="s">
+        <v>146</v>
+      </c>
+      <c r="M70" t="s">
+        <v>22</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
       <c r="O70" t="s">
         <v>30</v>
       </c>
@@ -3584,6 +3791,24 @@
       <c r="E71" t="s">
         <v>146</v>
       </c>
+      <c r="G71" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J71" t="s">
+        <v>150</v>
+      </c>
+      <c r="L71" t="s">
+        <v>146</v>
+      </c>
+      <c r="M71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
       <c r="O71" t="s">
         <v>41</v>
       </c>
@@ -3604,6 +3829,24 @@
       <c r="E72" t="s">
         <v>146</v>
       </c>
+      <c r="G72" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" t="s">
+        <v>149</v>
+      </c>
+      <c r="J72" t="s">
+        <v>150</v>
+      </c>
+      <c r="L72" t="s">
+        <v>146</v>
+      </c>
+      <c r="M72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
       <c r="O72" t="s">
         <v>42</v>
       </c>
@@ -3623,6 +3866,24 @@
       </c>
       <c r="E73" t="s">
         <v>146</v>
+      </c>
+      <c r="G73" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73" t="s">
+        <v>149</v>
+      </c>
+      <c r="J73" t="s">
+        <v>150</v>
+      </c>
+      <c r="L73" t="s">
+        <v>146</v>
+      </c>
+      <c r="M73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0</v>
       </c>
       <c r="O73" t="s">
         <v>43</v>

--- a/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
+++ b/docassemble/VTSharedYMLFile/data/sources/courts_list_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtlegalaid-my.sharepoint.com/personal/ksurette_legalservicesvt_org/Documents/TIG 22/Docassemble guided interviews Suffolk project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksurette\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{53F81566-F4D0-4366-90AE-5DA54A65EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49364260-E149-4326-BD9D-764F639C8F5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604D16C7-3D2B-4DC2-8152-D396813C3EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F13D4BD2-1651-4B43-8F6C-36F85B10F0AA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F13D4BD2-1651-4B43-8F6C-36F85B10F0AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A491E8-E2DE-9A4E-A3B9-C224836C99FE}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="J30" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2064,9 +2064,6 @@
       <c r="S27" t="s">
         <v>101</v>
       </c>
-      <c r="T27" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2104,6 +2101,9 @@
       </c>
       <c r="S28" t="s">
         <v>101</v>
+      </c>
+      <c r="T28" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3276,9 +3276,6 @@
       </c>
       <c r="S57" t="s">
         <v>142</v>
-      </c>
-      <c r="T57" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
